--- a/data-export/export_202204/sum_tagged_all_ops.xlsx
+++ b/data-export/export_202204/sum_tagged_all_ops.xlsx
@@ -438,16 +438,16 @@
         <v>83310636910.11037</v>
       </c>
       <c r="F2">
-        <v>142257627807.7419</v>
+        <v>142408862489.6619</v>
       </c>
       <c r="G2">
-        <v>123364078225.058</v>
+        <v>123470149677.878</v>
       </c>
       <c r="H2">
-        <v>16656197954.84388</v>
+        <v>16701310436.44388</v>
       </c>
       <c r="I2">
-        <v>2237351627.84</v>
+        <v>2237402375.34</v>
       </c>
       <c r="J2">
         <v>10628213704.66506</v>
@@ -715,16 +715,16 @@
         <v>84069139683.82854</v>
       </c>
       <c r="F9">
-        <v>142603867584.6269</v>
+        <v>142625904398.2969</v>
       </c>
       <c r="G9">
-        <v>67327399355.61</v>
+        <v>67349336169.53</v>
       </c>
       <c r="H9">
         <v>1327735458.67</v>
       </c>
       <c r="I9">
-        <v>73948732770.34695</v>
+        <v>73948832770.09695</v>
       </c>
       <c r="J9">
         <v>405580444.3399999</v>
@@ -1069,13 +1069,13 @@
         <v>69199503348.10663</v>
       </c>
       <c r="F18">
-        <v>97135407978.82335</v>
+        <v>97147960741.49001</v>
       </c>
       <c r="G18">
-        <v>78293238712.0183</v>
+        <v>78302924392.54497</v>
       </c>
       <c r="H18">
-        <v>17026569450.585</v>
+        <v>17029436532.725</v>
       </c>
       <c r="I18">
         <v>1815599816.22</v>
@@ -1106,13 +1106,13 @@
         <v>9674159.83333333</v>
       </c>
       <c r="F19">
-        <v>342623456.1066667</v>
+        <v>360958057.4400001</v>
       </c>
       <c r="G19">
-        <v>241656689.7916667</v>
+        <v>255795847.375</v>
       </c>
       <c r="H19">
-        <v>100966766.315</v>
+        <v>105162210.065</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>24703655647.15</v>
       </c>
       <c r="F23">
-        <v>35301617284.35</v>
+        <v>35301809979.14999</v>
       </c>
       <c r="G23">
-        <v>29820667005.6</v>
+        <v>29820859700.4</v>
       </c>
       <c r="H23">
         <v>1958111917.28</v>

--- a/data-export/export_202204/sum_tagged_all_ops.xlsx
+++ b/data-export/export_202204/sum_tagged_all_ops.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,12 +410,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>fin_vyuct_soukr</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>fin_vyuct_verejne</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>fin_vyuct_soukr</t>
         </is>
       </c>
     </row>
@@ -429,34 +429,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12240758962.18506</v>
+        <v>14874080343.21159</v>
       </c>
       <c r="D2">
-        <v>71069877947.92531</v>
+        <v>87839821255.26965</v>
       </c>
       <c r="E2">
-        <v>83310636910.11037</v>
+        <v>102713901598.4813</v>
       </c>
       <c r="F2">
-        <v>142408862489.6619</v>
+        <v>144717291631.5719</v>
       </c>
       <c r="G2">
-        <v>123470149677.878</v>
+        <v>125306568848.968</v>
       </c>
       <c r="H2">
-        <v>16701310436.44388</v>
+        <v>16920639263.50387</v>
       </c>
       <c r="I2">
-        <v>2237402375.34</v>
+        <v>2490083519.1</v>
       </c>
       <c r="J2">
-        <v>10628213704.66506</v>
+        <v>12889662522.73159</v>
       </c>
       <c r="K2">
-        <v>81698091652.59038</v>
+        <v>1984417820.480001</v>
       </c>
       <c r="L2">
-        <v>1612545257.520001</v>
+        <v>100729483778.0013</v>
       </c>
     </row>
     <row r="3">
@@ -469,34 +469,34 @@
         <v>0.4</v>
       </c>
       <c r="C3">
-        <v>2190249955.102</v>
+        <v>2450683445.732</v>
       </c>
       <c r="D3">
-        <v>12411416394.57799</v>
+        <v>13887206172.73799</v>
       </c>
       <c r="E3">
-        <v>14601666349.68</v>
+        <v>16337889618.46999</v>
       </c>
       <c r="F3">
-        <v>18141422501.93501</v>
+        <v>18658610813.86501</v>
       </c>
       <c r="G3">
-        <v>15420209125.19</v>
+        <v>15859819190.22999</v>
       </c>
       <c r="H3">
-        <v>1215051533.494999</v>
+        <v>1279668708.204999</v>
       </c>
       <c r="I3">
-        <v>1506161843.25</v>
+        <v>1519122915.43</v>
       </c>
       <c r="J3">
-        <v>878793410.8819997</v>
+        <v>1018963968.482</v>
       </c>
       <c r="K3">
-        <v>13290209805.46</v>
+        <v>1431719477.25</v>
       </c>
       <c r="L3">
-        <v>1311456544.22</v>
+        <v>14906170141.22</v>
       </c>
     </row>
     <row r="4">
@@ -509,34 +509,34 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>10971030608.73293</v>
+        <v>13326092141.03142</v>
       </c>
       <c r="D4">
-        <v>8936047498.141684</v>
+        <v>10800259757.29232</v>
       </c>
       <c r="E4">
-        <v>19907078106.87461</v>
+        <v>24126351898.3237</v>
       </c>
       <c r="F4">
-        <v>30018095137.70807</v>
+        <v>30689630517.02813</v>
       </c>
       <c r="G4">
-        <v>13559679867.732</v>
+        <v>14034726049.542</v>
       </c>
       <c r="H4">
-        <v>4061412058.746117</v>
+        <v>4093632595.816119</v>
       </c>
       <c r="I4">
-        <v>12397003211.22999</v>
+        <v>12561271871.67003</v>
       </c>
       <c r="J4">
-        <v>2434787496.772943</v>
+        <v>2995051572.591409</v>
       </c>
       <c r="K4">
-        <v>11370834994.91463</v>
+        <v>10331040568.44</v>
       </c>
       <c r="L4">
-        <v>8536243111.959981</v>
+        <v>13795311329.88372</v>
       </c>
     </row>
     <row r="5">
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="C5">
-        <v>985584.1799999997</v>
+        <v>17693909.15500001</v>
       </c>
       <c r="D5">
-        <v>5584976.995</v>
+        <v>100265485</v>
       </c>
       <c r="E5">
-        <v>6570561.175</v>
+        <v>117959394.155</v>
       </c>
       <c r="F5">
-        <v>7677453.895</v>
+        <v>533845546.465</v>
       </c>
       <c r="G5">
-        <v>6525835.81</v>
+        <v>453768714.46</v>
       </c>
       <c r="H5">
-        <v>1057321.835</v>
+        <v>69374443.375</v>
       </c>
       <c r="I5">
-        <v>94296.25</v>
+        <v>10702388.63</v>
       </c>
       <c r="J5">
-        <v>946192.6800000001</v>
+        <v>15413932.935</v>
       </c>
       <c r="K5">
-        <v>6531169.675</v>
+        <v>2279976.220000011</v>
       </c>
       <c r="L5">
-        <v>39391.5</v>
+        <v>115679417.935</v>
       </c>
     </row>
     <row r="6">
@@ -586,34 +586,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7330045746.849999</v>
+        <v>8815366984.52</v>
       </c>
       <c r="D6">
-        <v>41536925874.45</v>
+        <v>49953746217.42</v>
       </c>
       <c r="E6">
-        <v>48866971621.3</v>
+        <v>58769113201.94</v>
       </c>
       <c r="F6">
-        <v>72610408158.64999</v>
+        <v>75062938754.31</v>
       </c>
       <c r="G6">
-        <v>61718846934.83001</v>
+        <v>63803497941.14002</v>
       </c>
       <c r="H6">
-        <v>10891561223.82</v>
+        <v>11259440813.17</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7330045746.849998</v>
+        <v>8815366984.519999</v>
       </c>
       <c r="K6">
-        <v>48866971621.29999</v>
+        <v>5.811452865600586e-07</v>
       </c>
       <c r="L6">
-        <v>-7.078051567077637e-08</v>
+        <v>58769113201.94</v>
       </c>
     </row>
     <row r="7">
@@ -626,34 +626,34 @@
         <v>0.4</v>
       </c>
       <c r="C7">
-        <v>8719511796.17</v>
+        <v>10302767593.03</v>
       </c>
       <c r="D7">
-        <v>48021322203.67</v>
+        <v>54638725211.16</v>
       </c>
       <c r="E7">
-        <v>56740833999.84</v>
+        <v>64941492804.19</v>
       </c>
       <c r="F7">
-        <v>82954314940.39</v>
+        <v>82788623419.74998</v>
       </c>
       <c r="G7">
-        <v>69618804148.22</v>
+        <v>69556175515.59</v>
       </c>
       <c r="H7">
-        <v>10782478437.58</v>
+        <v>10766219954.26</v>
       </c>
       <c r="I7">
-        <v>2553032354.59</v>
+        <v>2466227949.9</v>
       </c>
       <c r="J7">
-        <v>8034264956.69</v>
+        <v>8620482068.359997</v>
       </c>
       <c r="K7">
-        <v>56055587160.36001</v>
+        <v>1682285524.670001</v>
       </c>
       <c r="L7">
-        <v>685246839.48</v>
+        <v>63259207279.52001</v>
       </c>
     </row>
     <row r="8">
@@ -666,34 +666,34 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>32594812.53</v>
+        <v>133490857.53</v>
       </c>
       <c r="D8">
-        <v>40161480.12</v>
+        <v>164793040.68</v>
       </c>
       <c r="E8">
-        <v>72756292.64999999</v>
+        <v>298283898.21</v>
       </c>
       <c r="F8">
-        <v>1728183143.33</v>
+        <v>1100237365.39</v>
       </c>
       <c r="G8">
-        <v>1016179835.08</v>
+        <v>658162101.7599999</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>712003308.2500001</v>
+        <v>442075263.6300001</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>40161480.12</v>
+        <v>133490857.53</v>
       </c>
       <c r="L8">
-        <v>32594812.53</v>
+        <v>164793040.68</v>
       </c>
     </row>
     <row r="9">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>46710123142.76447</v>
+        <v>55298519304.35423</v>
       </c>
       <c r="D9">
-        <v>37359016541.06408</v>
+        <v>46172499751.57029</v>
       </c>
       <c r="E9">
-        <v>84069139683.82854</v>
+        <v>101471019055.9245</v>
       </c>
       <c r="F9">
-        <v>142625904398.2969</v>
+        <v>139451326186.5369</v>
       </c>
       <c r="G9">
-        <v>67349336169.53</v>
+        <v>66474160558.06999</v>
       </c>
       <c r="H9">
-        <v>1327735458.67</v>
+        <v>1414261774.79</v>
       </c>
       <c r="I9">
-        <v>73948832770.09695</v>
+        <v>71562903853.67693</v>
       </c>
       <c r="J9">
-        <v>405580444.3399999</v>
+        <v>595977289.01</v>
       </c>
       <c r="K9">
-        <v>37764596985.40408</v>
+        <v>54702542015.34422</v>
       </c>
       <c r="L9">
-        <v>46304542698.42447</v>
+        <v>46768477040.5803</v>
       </c>
     </row>
     <row r="10">
@@ -746,34 +746,34 @@
         <v>0.4</v>
       </c>
       <c r="C10">
-        <v>1384886003.199999</v>
+        <v>1925404471.92</v>
       </c>
       <c r="D10">
-        <v>1131536012.849999</v>
+        <v>1532249651.859999</v>
       </c>
       <c r="E10">
-        <v>2516422016.05</v>
+        <v>3457654123.78</v>
       </c>
       <c r="F10">
-        <v>4256206142.58</v>
+        <v>3991130746.089999</v>
       </c>
       <c r="G10">
-        <v>1906999247.210001</v>
+        <v>1812231851.860001</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2349206895.369998</v>
+        <v>2178898894.23</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1131536012.849999</v>
+        <v>1925404471.92</v>
       </c>
       <c r="L10">
-        <v>1384886003.199999</v>
+        <v>1532249651.859999</v>
       </c>
     </row>
     <row r="11">
@@ -786,34 +786,34 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>15338791529.79552</v>
+        <v>20778075615.52579</v>
       </c>
       <c r="D11">
-        <v>10653410472.27589</v>
+        <v>14535592621.20966</v>
       </c>
       <c r="E11">
-        <v>25992202002.07145</v>
+        <v>35313668236.73548</v>
       </c>
       <c r="F11">
-        <v>57278749940.55305</v>
+        <v>55114931961.05306</v>
       </c>
       <c r="G11">
-        <v>23130472257.29995</v>
+        <v>22502635494.94995</v>
       </c>
       <c r="H11">
-        <v>29969062.5</v>
+        <v>32848858.3</v>
       </c>
       <c r="I11">
-        <v>34118308620.75313</v>
+        <v>32579447607.80311</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10653410472.27589</v>
+        <v>20778075615.52579</v>
       </c>
       <c r="L11">
-        <v>15338791529.79552</v>
+        <v>14535592621.20966</v>
       </c>
     </row>
     <row r="12">
@@ -823,34 +823,34 @@
         </is>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>161413759.66</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>190125761.92</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>351539521.5799999</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>999330573.5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>560117240.0199999</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>439213333.48</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>161413759.66</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>190125761.92</v>
       </c>
     </row>
     <row r="13">
@@ -863,34 +863,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2355438444.95</v>
+        <v>2847501697.62</v>
       </c>
       <c r="D13">
-        <v>2355408435.91</v>
+        <v>2847471687.21</v>
       </c>
       <c r="E13">
-        <v>4710846880.86</v>
+        <v>5694973384.83</v>
       </c>
       <c r="F13">
-        <v>7338636542.330001</v>
+        <v>7605939875.700001</v>
       </c>
       <c r="G13">
-        <v>3669318270.360001</v>
+        <v>3802969936.900001</v>
       </c>
       <c r="H13">
-        <v>3070253515.53</v>
+        <v>3187943557.86</v>
       </c>
       <c r="I13">
-        <v>599064756.4400001</v>
+        <v>615026380.9399999</v>
       </c>
       <c r="J13">
-        <v>1974856290.41</v>
+        <v>2363307335.74</v>
       </c>
       <c r="K13">
-        <v>4330264726.320001</v>
+        <v>484194361.88</v>
       </c>
       <c r="L13">
-        <v>380582154.54</v>
+        <v>5210779022.95</v>
       </c>
     </row>
     <row r="14">
@@ -903,13 +903,13 @@
         <v>0.4</v>
       </c>
       <c r="C14">
-        <v>209852157.65</v>
+        <v>442917050.23</v>
       </c>
       <c r="D14">
-        <v>209852157.61</v>
+        <v>442917050.17</v>
       </c>
       <c r="E14">
-        <v>419704315.26</v>
+        <v>885834100.4000001</v>
       </c>
       <c r="F14">
         <v>1192400385</v>
@@ -924,13 +924,13 @@
         <v>143150538.5</v>
       </c>
       <c r="J14">
-        <v>167881726.1</v>
+        <v>345744220.15</v>
       </c>
       <c r="K14">
-        <v>377733883.71</v>
+        <v>97172830.07999995</v>
       </c>
       <c r="L14">
-        <v>41970431.55</v>
+        <v>788661270.3200001</v>
       </c>
     </row>
     <row r="15">
@@ -943,34 +943,34 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>508257555.6</v>
+        <v>766769629.1300001</v>
       </c>
       <c r="D15">
-        <v>508257555.3199999</v>
+        <v>766769628.76</v>
       </c>
       <c r="E15">
-        <v>1016515110.92</v>
+        <v>1533539257.89</v>
       </c>
       <c r="F15">
-        <v>1793407125.88</v>
+        <v>2003393167.33</v>
       </c>
       <c r="G15">
-        <v>896703562.8999999</v>
+        <v>1001696583.62</v>
       </c>
       <c r="H15">
-        <v>660463502.37</v>
+        <v>733958616.87</v>
       </c>
       <c r="I15">
-        <v>236240060.61</v>
+        <v>267737966.8399999</v>
       </c>
       <c r="J15">
-        <v>367469247.28</v>
+        <v>556012414.6000001</v>
       </c>
       <c r="K15">
-        <v>875726802.6000001</v>
+        <v>210757214.5300001</v>
       </c>
       <c r="L15">
-        <v>140788308.32</v>
+        <v>1322782043.36</v>
       </c>
     </row>
     <row r="16">
@@ -983,34 +983,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>825655048.9349999</v>
+        <v>955131258.3199999</v>
       </c>
       <c r="D16">
-        <v>4678711915.934999</v>
+        <v>5412410426.605</v>
       </c>
       <c r="E16">
-        <v>5504366964.869999</v>
+        <v>6367541684.924998</v>
       </c>
       <c r="F16">
-        <v>7327589139.670001</v>
+        <v>7863423080.809999</v>
       </c>
       <c r="G16">
-        <v>6228450768.150002</v>
+        <v>6683909618.005</v>
       </c>
       <c r="H16">
-        <v>1099138371.52</v>
+        <v>1179513462.805</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>825655048.9349999</v>
+        <v>955131258.3199998</v>
       </c>
       <c r="K16">
-        <v>5504366964.869999</v>
+        <v>6.315531209111214e-08</v>
       </c>
       <c r="L16">
-        <v>3.445893526077271e-08</v>
+        <v>6367541684.924998</v>
       </c>
     </row>
     <row r="17">
@@ -1020,34 +1020,34 @@
         </is>
       </c>
       <c r="C17">
-        <v>11127.525</v>
+        <v>235671.2299999999</v>
       </c>
       <c r="D17">
-        <v>63055.975</v>
+        <v>1335470.285</v>
       </c>
       <c r="E17">
-        <v>74183.5</v>
+        <v>1571141.515</v>
       </c>
       <c r="F17">
-        <v>8439921</v>
+        <v>8034604.5</v>
       </c>
       <c r="G17">
-        <v>7173932.85</v>
+        <v>6829413.824999999</v>
       </c>
       <c r="H17">
-        <v>1265988.15</v>
+        <v>1205190.675</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11127.525</v>
+        <v>235671.23</v>
       </c>
       <c r="K17">
-        <v>74183.5</v>
+        <v>-1.164153218269348e-10</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1571141.515</v>
       </c>
     </row>
     <row r="18">
@@ -1060,34 +1060,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13274921136.76666</v>
+        <v>16055262694.42335</v>
       </c>
       <c r="D18">
-        <v>55924582211.34</v>
+        <v>67614530996.57335</v>
       </c>
       <c r="E18">
-        <v>69199503348.10663</v>
+        <v>83669793690.99664</v>
       </c>
       <c r="F18">
-        <v>97147960741.49001</v>
+        <v>98216292142.77171</v>
       </c>
       <c r="G18">
-        <v>78302924392.54497</v>
+        <v>79179062406.00832</v>
       </c>
       <c r="H18">
-        <v>17029436532.725</v>
+        <v>17221962682.09334</v>
       </c>
       <c r="I18">
-        <v>1815599816.22</v>
+        <v>1815267054.67</v>
       </c>
       <c r="J18">
-        <v>11776840480.41666</v>
+        <v>14412827733.25334</v>
       </c>
       <c r="K18">
-        <v>67701422691.75666</v>
+        <v>1642434961.169999</v>
       </c>
       <c r="L18">
-        <v>1498080656.349999</v>
+        <v>82027358729.82668</v>
       </c>
     </row>
     <row r="19">
@@ -1097,34 +1097,34 @@
         </is>
       </c>
       <c r="C19">
-        <v>1838348.203333334</v>
+        <v>54296144.34666662</v>
       </c>
       <c r="D19">
-        <v>7835811.629999999</v>
+        <v>170872904.1566668</v>
       </c>
       <c r="E19">
-        <v>9674159.83333333</v>
+        <v>225169048.5033333</v>
       </c>
       <c r="F19">
-        <v>360958057.4400001</v>
+        <v>775158107.1983334</v>
       </c>
       <c r="G19">
-        <v>255795847.375</v>
+        <v>591985130.1616677</v>
       </c>
       <c r="H19">
-        <v>105162210.065</v>
+        <v>183172977.0366667</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1838348.203333334</v>
+        <v>54296144.34666662</v>
       </c>
       <c r="K19">
-        <v>9674159.83333333</v>
+        <v>8.24608529607455e-11</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>225169048.5033333</v>
       </c>
     </row>
     <row r="20">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10080907456</v>
+        <v>11926526188.625</v>
       </c>
       <c r="D20">
-        <v>47680986352.27501</v>
+        <v>56083339454.70502</v>
       </c>
       <c r="E20">
-        <v>57761893808.27499</v>
+        <v>68009865643.33004</v>
       </c>
       <c r="F20">
-        <v>81972994178.96001</v>
+        <v>81864582061.01003</v>
       </c>
       <c r="G20">
-        <v>67448114157.77502</v>
+        <v>67378671887.89509</v>
       </c>
       <c r="H20">
-        <v>13459663161.89502</v>
+        <v>13450744521.91503</v>
       </c>
       <c r="I20">
-        <v>1065216859.289999</v>
+        <v>1035165651.199999</v>
       </c>
       <c r="J20">
-        <v>9383516172.840004</v>
+        <v>11139730225.185</v>
       </c>
       <c r="K20">
-        <v>57064502525.11497</v>
+        <v>786795963.440001</v>
       </c>
       <c r="L20">
-        <v>697391283.1599998</v>
+        <v>67223069679.88999</v>
       </c>
     </row>
     <row r="21">
@@ -1174,34 +1174,34 @@
         </is>
       </c>
       <c r="C21">
-        <v>257556.42</v>
+        <v>244076330.4949999</v>
       </c>
       <c r="D21">
-        <v>257556.415</v>
+        <v>1007952659.905</v>
       </c>
       <c r="E21">
-        <v>515112.835</v>
+        <v>1252028990.4</v>
       </c>
       <c r="F21">
-        <v>1252357157.5</v>
+        <v>1255887518.44</v>
       </c>
       <c r="G21">
-        <v>1008422224.775</v>
+        <v>1010187405.245</v>
       </c>
       <c r="H21">
-        <v>243934932.725</v>
+        <v>245700113.195</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>257556.42</v>
+        <v>244076330.495</v>
       </c>
       <c r="K21">
-        <v>515112.835</v>
+        <v>2.328306436538696e-10</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1252028990.4</v>
       </c>
     </row>
     <row r="22">
@@ -1214,34 +1214,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4601830948.880002</v>
+        <v>5196868420.350001</v>
       </c>
       <c r="D22">
-        <v>22165311516.8</v>
+        <v>24453808602.97</v>
       </c>
       <c r="E22">
-        <v>26767142465.68001</v>
+        <v>29650677023.32</v>
       </c>
       <c r="F22">
-        <v>32820188524.39001</v>
+        <v>32392277555.38</v>
       </c>
       <c r="G22">
-        <v>26464133898.08002</v>
+        <v>26355550085.56001</v>
       </c>
       <c r="H22">
-        <v>4490249645.990001</v>
+        <v>4294347319.150002</v>
       </c>
       <c r="I22">
-        <v>1865804980.32</v>
+        <v>1742380150.67</v>
       </c>
       <c r="J22">
-        <v>3703685827.270001</v>
+        <v>3956783962.04</v>
       </c>
       <c r="K22">
-        <v>25868997344.07</v>
+        <v>1240084458.31</v>
       </c>
       <c r="L22">
-        <v>898145121.6100004</v>
+        <v>28410592565.01</v>
       </c>
     </row>
     <row r="23">
@@ -1254,34 +1254,34 @@
         <v>0.4</v>
       </c>
       <c r="C23">
-        <v>3492224077.119999</v>
+        <v>4313224688.399999</v>
       </c>
       <c r="D23">
-        <v>21211431570.03</v>
+        <v>25120556484.46999</v>
       </c>
       <c r="E23">
-        <v>24703655647.15</v>
+        <v>29433781172.86999</v>
       </c>
       <c r="F23">
-        <v>35301809979.14999</v>
+        <v>35012741219.09</v>
       </c>
       <c r="G23">
-        <v>29820859700.4</v>
+        <v>29681374960.77</v>
       </c>
       <c r="H23">
-        <v>1958111917.28</v>
+        <v>2045559746.34</v>
       </c>
       <c r="I23">
-        <v>3522838361.469999</v>
+        <v>3285806511.98</v>
       </c>
       <c r="J23">
-        <v>1407487061.72</v>
+        <v>1694768102.869999</v>
       </c>
       <c r="K23">
-        <v>22618918631.75</v>
+        <v>2618456585.53</v>
       </c>
       <c r="L23">
-        <v>2084737015.4</v>
+        <v>26815324587.33999</v>
       </c>
     </row>
     <row r="24">
@@ -1294,74 +1294,71 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>8047828814.27</v>
+        <v>9722720863.710009</v>
       </c>
       <c r="D24">
-        <v>6460611635.629999</v>
+        <v>7893504149.970001</v>
       </c>
       <c r="E24">
-        <v>14508440449.89998</v>
+        <v>17616225013.67997</v>
       </c>
       <c r="F24">
-        <v>21765552037.73999</v>
+        <v>24844451710.35998</v>
       </c>
       <c r="G24">
-        <v>9735510057.839996</v>
+        <v>11287320710.28999</v>
       </c>
       <c r="H24">
-        <v>11866508650.98</v>
+        <v>13311281407.95</v>
       </c>
       <c r="I24">
-        <v>163533328.92</v>
+        <v>245849592.12</v>
       </c>
       <c r="J24">
-        <v>7982439746.949999</v>
+        <v>9649649326.550009</v>
       </c>
       <c r="K24">
-        <v>14443051382.57998</v>
+        <v>73071537.16000001</v>
       </c>
       <c r="L24">
-        <v>65389067.31999997</v>
+        <v>17543153476.51997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PRV</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>0</v>
+          <t>OP ŽP</t>
+        </is>
       </c>
       <c r="C25">
-        <v>12292664459.6</v>
+        <v>4010.73</v>
       </c>
       <c r="D25">
-        <v>17035112128.29</v>
+        <v>22727.47</v>
       </c>
       <c r="E25">
-        <v>29327776587.89</v>
+        <v>26738.2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5895000</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>5010750</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>884250</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4010.73</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>26738.2</v>
       </c>
     </row>
     <row r="26">
@@ -1371,16 +1368,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1375172751.48</v>
+        <v>12292664459.59999</v>
       </c>
       <c r="D26">
-        <v>1411505050.42</v>
+        <v>17035112128.2901</v>
       </c>
       <c r="E26">
-        <v>2786677801.9</v>
+        <v>29327776587.88992</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1411,36 +1408,76 @@
         </is>
       </c>
       <c r="B27">
+        <v>0.4</v>
+      </c>
+      <c r="C27">
+        <v>1375172751.48</v>
+      </c>
+      <c r="D27">
+        <v>1411505050.420001</v>
+      </c>
+      <c r="E27">
+        <v>2786677801.9</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PRV</t>
+        </is>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C27">
-        <v>5817360331.59</v>
-      </c>
-      <c r="D27">
-        <v>17427581457.83</v>
-      </c>
-      <c r="E27">
-        <v>23244941789.42</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="C28">
+        <v>5817360331.589977</v>
+      </c>
+      <c r="D28">
+        <v>17427581457.83015</v>
+      </c>
+      <c r="E28">
+        <v>23244941789.41993</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>0</v>
       </c>
     </row>
